--- a/pred_ohlcv/54_21/2020-01-14 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 PLY ohlcv.xlsx
@@ -1224,7 +1224,7 @@
         <v>-2666983.976009251</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2666983.976009251</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2666983.976009251</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2666983.976009251</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-9450446.508551188</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-10288804.16865119</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-10288688.16865119</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-10942734.97730173</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-10942550.61980173</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-11037688.77210173</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-8376930.361251561</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-7957450.605757283</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-7908014.275957283</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-7834034.087411279</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-7834034.087411279</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-7834034.087411279</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-7158050.083971743</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-7343992.940171743</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-7407228.416971743</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-7415141.359271743</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-7456765.356471743</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-7456765.356471743</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-7456765.356471743</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-7456765.356471743</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-7500901.377525739</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 PLY ohlcv.xlsx
@@ -1224,7 +1224,7 @@
         <v>-2666983.976009251</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2666983.976009251</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2666983.976009251</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2666983.976009251</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-9450446.508551188</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-10288804.16865119</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-10288688.16865119</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-10274240.18395119</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-10178877.68995119</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-10429453.05425119</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-10537013.09700173</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-10942734.97730173</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-10942550.61980173</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-11042688.77210173</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-11037688.77210173</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-10024354.10580173</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-10082521.60430173</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-10082521.60430173</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-10386955.64300174</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-10370890.33130174</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-8376930.361251561</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-7957450.605757283</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-7908014.275957283</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-7834034.087411279</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-7834034.087411279</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-7834034.087411279</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-7343992.940171743</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-7407228.416971743</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-7415141.359271743</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
